--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -1,12 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB99C3-B334-7345-AFBE-6C73CA290B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="42000" yWindow="500" windowWidth="34800" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -250,17 +259,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -269,7 +280,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -279,35 +290,42 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -497,25 +515,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.75"/>
-    <col customWidth="1" min="3" max="3" width="24.88"/>
-    <col customWidth="1" min="4" max="4" width="16.0"/>
+    <col min="2" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="24.83203125" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +552,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -543,7 +566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -557,7 +580,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,7 +594,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -585,7 +608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -599,7 +622,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -613,7 +636,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
@@ -627,7 +650,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -641,7 +664,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -655,7 +678,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
@@ -669,7 +692,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
@@ -683,7 +706,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
@@ -697,7 +720,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
@@ -711,7 +734,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>40</v>
       </c>
@@ -725,7 +748,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>44</v>
       </c>
@@ -739,7 +762,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>48</v>
       </c>
@@ -753,7 +776,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>51</v>
       </c>
@@ -767,7 +790,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>54</v>
       </c>
@@ -781,7 +804,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -795,7 +818,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>60</v>
       </c>
@@ -809,7 +832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>63</v>
       </c>
@@ -823,7 +846,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>66</v>
       </c>
@@ -837,7 +860,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>69</v>
       </c>
@@ -851,7 +874,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
         <v>72</v>
       </c>
@@ -865,7 +888,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
         <v>75</v>
       </c>
@@ -880,6 +903,6 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1ABB99C3-B334-7345-AFBE-6C73CA290B3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{909BB4B2-2BED-C44C-BEB7-6C20394ABC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42000" yWindow="500" windowWidth="34800" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5500" yWindow="500" windowWidth="34800" windowHeight="31500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,12 @@
     <t>hasId</t>
   </si>
   <si>
-    <t>hasLocationName</t>
-  </si>
-  <si>
-    <t>hasLocationGeoname</t>
-  </si>
-  <si>
-    <t>hasCantonList</t>
-  </si>
-  <si>
     <t>L_001</t>
   </si>
   <si>
     <t>Basel-Stadt</t>
   </si>
   <si>
-    <t>BS</t>
-  </si>
-  <si>
     <t>L_002</t>
   </si>
   <si>
@@ -254,6 +242,18 @@
   </si>
   <si>
     <t>JU</t>
+  </si>
+  <si>
+    <t>hasName</t>
+  </si>
+  <si>
+    <t>hasGeoname</t>
+  </si>
+  <si>
+    <t>hasWonderlandLocationList</t>
+  </si>
+  <si>
+    <t>Alice's Garden</t>
   </si>
 </sst>
 </file>
@@ -275,18 +275,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -301,12 +295,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -528,14 +523,15 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="24.83203125" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="3"/>
+    <col min="2" max="2" width="25.5" style="3" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -543,363 +539,363 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABBE6708-26CE-8E46-B85F-275CD28FE66C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0064AD-B949-E046-8246-A47A410CBBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22060" yWindow="6080" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,9 +22,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
-    <t>hasId</t>
-  </si>
-  <si>
     <t>L_001</t>
   </si>
   <si>
@@ -58,15 +55,6 @@
     <t>L_011</t>
   </si>
   <si>
-    <t>hasName</t>
-  </si>
-  <si>
-    <t>hasGeoname</t>
-  </si>
-  <si>
-    <t>hasWonderlandLocationList</t>
-  </si>
-  <si>
     <t>Alice's Garden</t>
   </si>
   <si>
@@ -98,6 +86,18 @@
   </si>
   <si>
     <t>England</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Geoname</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Wonderland Location</t>
   </si>
 </sst>
 </file>
@@ -112,14 +112,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -127,6 +120,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -154,11 +154,11 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -380,226 +380,228 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C12"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.5" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="2"/>
+    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
-      <c r="D8" s="3" t="s">
-        <v>22</v>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
-      <c r="D9" s="3" t="s">
-        <v>23</v>
+      <c r="D9" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
-      <c r="D10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
       <c r="D26" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0064AD-B949-E046-8246-A47A410CBBE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91662DFA-6778-4A49-9199-FFF000894E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22060" yWindow="6080" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="42080" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>L_001</t>
   </si>
@@ -97,14 +97,41 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Wonderland Location</t>
+    <t>Wonderland Location List</t>
+  </si>
+  <si>
+    <t>Location 1</t>
+  </si>
+  <si>
+    <t>Location 2</t>
+  </si>
+  <si>
+    <t>Location 3</t>
+  </si>
+  <si>
+    <t>Location 4</t>
+  </si>
+  <si>
+    <t>Location 5</t>
+  </si>
+  <si>
+    <t>Location 6</t>
+  </si>
+  <si>
+    <t>Location 7</t>
+  </si>
+  <si>
+    <t>Location 8</t>
+  </si>
+  <si>
+    <t>Location 9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -131,6 +158,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="7.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -149,18 +198,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -380,14 +434,14 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2"/>
     <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="12.6640625" style="2"/>
   </cols>
@@ -411,7 +465,9 @@
         <v>0</v>
       </c>
       <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="C2" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
@@ -421,7 +477,9 @@
         <v>1</v>
       </c>
       <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="C3" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
@@ -431,7 +489,9 @@
         <v>2</v>
       </c>
       <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
@@ -441,7 +501,9 @@
         <v>3</v>
       </c>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
@@ -451,7 +513,9 @@
         <v>4</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
@@ -461,7 +525,9 @@
         <v>5</v>
       </c>
       <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
@@ -471,7 +537,9 @@
         <v>6</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
@@ -481,7 +549,9 @@
         <v>7</v>
       </c>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
@@ -491,7 +561,9 @@
         <v>8</v>
       </c>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
@@ -500,8 +572,12 @@
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="B11" s="1">
+        <v>2640729</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D11" s="1" t="s">
         <v>12</v>
       </c>
@@ -510,8 +586,12 @@
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="B12" s="1">
+        <v>6269131</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="D12" s="1" t="s">
         <v>21</v>
       </c>
@@ -567,19 +647,19 @@
     <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
+      <c r="C21" s="5"/>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
+      <c r="C22" s="4"/>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91662DFA-6778-4A49-9199-FFF000894E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F988B-1E8E-084B-AB4A-0E830F2F8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="42080" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
   <si>
     <t>L_001</t>
   </si>
@@ -91,40 +91,22 @@
     <t>ID</t>
   </si>
   <si>
-    <t>Geoname</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Wonderland Location List</t>
-  </si>
-  <si>
-    <t>Location 1</t>
-  </si>
-  <si>
-    <t>Location 2</t>
-  </si>
-  <si>
-    <t>Location 3</t>
-  </si>
-  <si>
-    <t>Location 4</t>
-  </si>
-  <si>
-    <t>Location 5</t>
-  </si>
-  <si>
-    <t>Location 6</t>
-  </si>
-  <si>
-    <t>Location 7</t>
-  </si>
-  <si>
-    <t>Location 8</t>
-  </si>
-  <si>
-    <t>Location 9</t>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Geoname ID</t>
+  </si>
+  <si>
+    <t>Location Type List</t>
+  </si>
+  <si>
+    <t>Real World</t>
+  </si>
+  <si>
+    <t>Wonderland</t>
   </si>
 </sst>
 </file>
@@ -431,254 +413,277 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.6640625" style="2"/>
-    <col min="2" max="2" width="25.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="12.6640625" style="2"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5" style="2" customWidth="1"/>
+    <col min="5" max="5" width="34" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="12.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
       <c r="C3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="C8" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
       <c r="C10" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="1">
-        <v>2640729</v>
+      <c r="B11" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2640729</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="1">
-        <v>6269131</v>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="1">
+        <v>6269131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="4"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="6"/>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="3"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
       <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="1"/>
+      <c r="E26" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data/Spreadsheet_Data/Location.xlsx
+++ b/data/Spreadsheet_Data/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/noemivillars-amberg/Documents/daschland-scripts/data/Spreadsheet_Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/danielasubotic/Documents/GitHub/daschland-scripts/data/Spreadsheet_Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E0F988B-1E8E-084B-AB4A-0E830F2F8474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{216B771F-BCDE-4244-B578-EA21CF26873A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42080" yWindow="500" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9460" yWindow="9880" windowWidth="34560" windowHeight="21580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>L_001</t>
   </si>
@@ -107,17 +107,78 @@
   </si>
   <si>
     <t>Wonderland</t>
+  </si>
+  <si>
+    <t>Hall of Doors</t>
+  </si>
+  <si>
+    <t>Garden of Live Flowers</t>
+  </si>
+  <si>
+    <t>Queen's Garden</t>
+  </si>
+  <si>
+    <t>Caterpillar’s Mushroom</t>
+  </si>
+  <si>
+    <t>The March Hare’s House</t>
+  </si>
+  <si>
+    <t>Courtroom</t>
+  </si>
+  <si>
+    <t>L_012</t>
+  </si>
+  <si>
+    <t>L_013</t>
+  </si>
+  <si>
+    <t>L_014</t>
+  </si>
+  <si>
+    <t>L_015</t>
+  </si>
+  <si>
+    <t>L_016</t>
+  </si>
+  <si>
+    <t>L_017</t>
+  </si>
+  <si>
+    <t>Wood Where Things Have No Names</t>
+  </si>
+  <si>
+    <t>Mock Turtle’s Beach</t>
+  </si>
+  <si>
+    <t>Gryphon’s Plateau</t>
+  </si>
+  <si>
+    <t>L_018</t>
+  </si>
+  <si>
+    <t>L_019</t>
+  </si>
+  <si>
+    <t>L_020</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -141,23 +202,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="7.5"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,23 +226,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -416,7 +459,7 @@
   <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="A17" sqref="A17:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -616,58 +659,147 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E16" s="1"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="1"/>
-      <c r="B17" s="3"/>
+      <c r="A17" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E17" s="3"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="1"/>
-      <c r="B18" s="3"/>
+      <c r="A18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E18" s="3"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1"/>
-      <c r="B19" s="3"/>
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E19" s="3"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E20" s="3"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5"/>
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="E21" s="3"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="4"/>
       <c r="E22" s="3"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
+      <c r="B23" s="4"/>
       <c r="E23" s="3"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -686,7 +818,7 @@
       <c r="E26" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>